--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1280 +397,1378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>6.005399760970445</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.5412217458762797</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.038266050709882</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="F2">
         <v>2.579284024443731</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>3.76228376210224</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H2" t="n">
-        <v>16.01847271473035</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>18.41478251196163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>6.900614632171004</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.6443116022336666</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.025510700473255</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.369319884132161</v>
+      </c>
+      <c r="F3">
         <v>3.235829048847591</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>5.831539831258472</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>18.63780581498399</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>20.00712569911615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5.623068409728535</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.4639043536082399</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.603529304541327</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>2.310727304473023</v>
+      </c>
+      <c r="F4">
         <v>2.532387951272027</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>3.856340856154794</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H4" t="n">
-        <v>14.17124824593269</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>16.48197555040572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6.434356886754047</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.6185391381443198</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.447492096405183</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="F5">
         <v>2.462043841514472</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>2.727655727524123</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.1840347412555406</v>
       </c>
-      <c r="H5" t="n">
-        <v>14.87412243159769</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>16.41460730124637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6.117301619870513</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.8504913149484395</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.025510700473255</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="F6">
         <v>2.438595804928619</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>3.668226668049683</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H6" t="n">
-        <v>15.14613479358439</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>16.60103717047482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5.996074606062101</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4896768176975864</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.603529304541327</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="F7">
         <v>2.743420280544697</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>3.386055385892015</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.4140781678249662</v>
       </c>
-      <c r="H7" t="n">
-        <v>14.63283456256269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>16.60123189600267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>5.7815960431703</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.7474014585910528</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.687925583727713</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="F8">
         <v>2.602732061029585</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>2.821712821576679</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H8" t="n">
-        <v>13.77939402403699</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>15.49104387920218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>6.48098266129574</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4123594254295465</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.375851167455425</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F9">
         <v>2.55583598785788</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>2.069256069156231</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H9" t="n">
-        <v>15.03231136713648</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>17.08629119333472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>7.889081052454955</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.6185391381443198</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.109906979659641</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>1.882814840681722</v>
+      </c>
+      <c r="F10">
         <v>2.227563475655951</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>1.504913504840895</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H10" t="n">
-        <v>14.39601283606965</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>16.27882767675137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>7.702577954288175</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.1804072486254266</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2.278699538032412</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="F11">
         <v>1.172401829292606</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.9405709405255599</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H11" t="n">
-        <v>12.36667488139195</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>14.59181969310671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>6.788712773270935</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.3092695690721599</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.603529304541327</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F12">
         <v>0.844129317090676</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>1.598970598893452</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H12" t="n">
-        <v>11.23662893349632</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>14.23201618003542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>5.333988607570021</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.15463478453608</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1.265944187795784</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="F13">
         <v>0.7503371707472674</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H13" t="n">
-        <v>8.397427282436041</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>10.79373707966732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4.186994553844299</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.2319521768041199</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.181547908609399</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>2.738639768264322</v>
+      </c>
+      <c r="F14">
         <v>0.4924087683028943</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.5643425643153358</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>6.657245971876048</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>9.39588574014037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2.750920697960063</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1030898563573866</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.5063776751183137</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="F15">
         <v>0.3517205487877815</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.6583996583678919</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.416517121905322</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>5.957001991554003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.426748700975897</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.2834971049828132</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.6751702334910848</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.6846599420660806</v>
+      </c>
+      <c r="F16">
         <v>0.422064658545338</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>3.277766168257913</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>3.962426110323994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.9791412653756154</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.1288623204467333</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1687925583727712</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.211032329272669</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>1.958113943730569</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.7926381672088315</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.2577246408934666</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.3375851167455424</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.08558249275826008</v>
+      </c>
+      <c r="F18">
         <v>0.2813764390302253</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.3762283762102239</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.137570110716061</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>2.22315260347432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.4382822806919422</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.3375851167455424</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>0.3048244756160774</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.6583996583678919</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>1.816408923689494</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.4289571257836032</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.2531888375591568</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="F20">
         <v>0.1875842926868168</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.1881141881051119</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>1.135161836402729</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>1.477491807435769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.119018589000703</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.3375851167455424</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.1711649855165202</v>
+      </c>
+      <c r="F21">
         <v>0.3048244756160774</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.1881141881051119</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>1.975314833556781</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>2.146479819073301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3.22650359828536</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.2061797127147733</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1.265944187795784</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.7702424348243407</v>
+      </c>
+      <c r="F22">
         <v>0.9848175366057886</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>1.504913504840895</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>7.188358540242602</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>7.958600975066942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>5.110184889769878</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.3608144972508532</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.35034046698217</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F23">
         <v>1.758602743938908</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>3.103884103734346</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.2300434265694257</v>
       </c>
-      <c r="H23" t="n">
-        <v>11.91387012824558</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>14.90925737478468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>6.732761843820898</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.2319521768041199</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.109906979659641</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>3.252134724813883</v>
+      </c>
+      <c r="F24">
         <v>1.922739000039873</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>1.88114188105112</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H24" t="n">
-        <v>12.97051925200342</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>16.2226539768173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>6.807363083087615</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.2577246408934666</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1.687925583727713</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="F25">
         <v>1.45377826832283</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>2.821712821576679</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.2760521118833107</v>
       </c>
-      <c r="H25" t="n">
-        <v>13.30455650949162</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>15.52970132120638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>6.005399760970445</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.5412217458762797</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.038266050709882</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="F26">
         <v>2.579284024443731</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>3.76228376210224</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H26" t="n">
-        <v>16.01847271473035</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>18.41478251196163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>5.184786129036589</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.5412217458762797</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.194303258846026</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="F27">
         <v>3.024796719574923</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>2.633598633471568</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H27" t="n">
-        <v>13.62471517211927</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>15.07961754900969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>5.88417274716203</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.7474014585910528</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2.194303258846026</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="F28">
         <v>2.344803658585211</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>3.76228376210224</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H28" t="n">
-        <v>15.02498225591433</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>16.99337958935431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>5.361964072295039</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.6443116022336666</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2.363095817218798</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="F29">
         <v>1.922739000039873</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>1.598970598893452</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H29" t="n">
-        <v>12.02910714662248</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>13.48400952351291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>5.417915001745075</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.3865869613402</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2.109906979659641</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.283737391373901</v>
+      </c>
+      <c r="F30">
         <v>2.344803658585211</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>3.103884103734346</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.1840347412555406</v>
       </c>
-      <c r="H30" t="n">
-        <v>13.54713144632001</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>14.83086883769391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>5.436565311561749</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.5154492817869332</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2.700680933964339</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.369319884132161</v>
+      </c>
+      <c r="F31">
         <v>2.743420280544697</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>1.975198975103675</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H31" t="n">
-        <v>13.46333215358916</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>14.83265203772132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>5.68834449408691</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.5927666740549731</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2.109906979659641</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>1.797232347923462</v>
+      </c>
+      <c r="F32">
         <v>2.743420280544697</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>2.163313163208787</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H32" t="n">
-        <v>13.43577764749666</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>15.23300999542013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>6.48098266129574</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.4123594254295465</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3.375851167455425</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F33">
         <v>2.55583598785788</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>2.069256069156231</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H33" t="n">
-        <v>15.03231136713648</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>17.08629119333472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>7.889081052454955</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.6185391381443198</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2.109906979659641</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>1.882814840681722</v>
+      </c>
+      <c r="F34">
         <v>2.227563475655951</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>1.504913504840895</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H34" t="n">
-        <v>14.39601283606965</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>16.27882767675137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>7.702577954288175</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.1804072486254266</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2.278699538032412</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="F35">
         <v>1.172401829292606</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.9405709405255599</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H35" t="n">
-        <v>12.36667488139195</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>14.59181969310671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>6.788712773270935</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.3092695690721599</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1.603529304541327</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F36">
         <v>0.844129317090676</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>1.598970598893452</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H36" t="n">
-        <v>11.23662893349632</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>14.23201618003542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>5.333988607570021</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.15463478453608</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1.265944187795784</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="F37">
         <v>0.7503371707472674</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H37" t="n">
-        <v>8.397427282436041</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>10.79373707966732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>4.186994553844299</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.2319521768041199</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1.181547908609399</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>2.738639768264322</v>
+      </c>
+      <c r="F38">
         <v>0.4924087683028943</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.5643425643153358</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>6.657245971876048</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>9.39588574014037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2.750920697960063</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.1030898563573866</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.5063776751183137</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="F39">
         <v>0.3517205487877815</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.6583996583678919</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H39" t="n">
-        <v>4.416517121905322</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>5.957001991554003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1.426748700975897</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2834971049828132</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.6751702334910848</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.6846599420660806</v>
+      </c>
+      <c r="F40">
         <v>0.422064658545338</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>3.277766168257913</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>3.962426110323994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.9791412653756154</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1288623204467333</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.1687925583727712</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.211032329272669</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>1.958113943730569</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.7926381672088315</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.2577246408934666</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.3375851167455424</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.08558249275826008</v>
+      </c>
+      <c r="F42">
         <v>0.2813764390302253</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.3762283762102239</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H42" t="n">
-        <v>2.137570110716061</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>2.22315260347432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.4382822806919422</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.3375851167455424</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>0.3048244756160774</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.6583996583678919</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>1.816408923689494</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.4289571257836032</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.2531888375591568</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="F44">
         <v>0.1875842926868168</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.1881141881051119</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>1.135161836402729</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>1.477491807435769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.119018589000703</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.3375851167455424</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.1711649855165202</v>
+      </c>
+      <c r="F45">
         <v>0.3048244756160774</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.1881141881051119</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>1.975314833556781</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>2.146479819073301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3.22650359828536</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.2061797127147733</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1.265944187795784</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>0.7702424348243407</v>
+      </c>
+      <c r="F46">
         <v>0.9848175366057886</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>1.504913504840895</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>7.188358540242602</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>7.958600975066942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>5.110184889769878</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3608144972508532</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1.35034046698217</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F47">
         <v>1.758602743938908</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>3.103884103734346</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2300434265694257</v>
       </c>
-      <c r="H47" t="n">
-        <v>11.91387012824558</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>14.90925737478468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>6.732761843820898</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2319521768041199</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>2.109906979659641</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>3.252134724813883</v>
+      </c>
+      <c r="F48">
         <v>1.922739000039873</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>1.88114188105112</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H48" t="n">
-        <v>12.97051925200342</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>16.2226539768173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>6.807363083087615</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.2577246408934666</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1.687925583727713</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="F49">
         <v>1.45377826832283</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>2.821712821576679</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2760521118833107</v>
       </c>
-      <c r="H49" t="n">
-        <v>13.30455650949162</v>
+      <c r="I49">
+        <v>15.52970132120638</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>6.005399760970445</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="C2">
-        <v>0.5412217458762797</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="D2">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E2">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F2">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G2">
-        <v>3.76228376210224</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="H2">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I2">
-        <v>18.41478251196163</v>
+        <v>81.62227924220829</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>6.900614632171004</v>
+        <v>30.58650809935257</v>
       </c>
       <c r="C3">
-        <v>0.6443116022336666</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="D3">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E3">
-        <v>1.369319884132161</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="F3">
-        <v>3.235829048847591</v>
+        <v>14.34259362191905</v>
       </c>
       <c r="G3">
-        <v>5.831539831258472</v>
+        <v>25.8479062790916</v>
       </c>
       <c r="I3">
-        <v>20.00712569911615</v>
+        <v>88.68023282851482</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>5.623068409728535</v>
+        <v>24.923870789067</v>
       </c>
       <c r="C4">
-        <v>0.4639043536082399</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="D4">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E4">
-        <v>2.310727304473023</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F4">
-        <v>2.532387951272027</v>
+        <v>11.22463848671926</v>
       </c>
       <c r="G4">
-        <v>3.856340856154794</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="H4">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I4">
-        <v>16.48197555040572</v>
+        <v>73.05524298017669</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>6.434356886754047</v>
+        <v>28.5198521466936</v>
       </c>
       <c r="C5">
-        <v>0.6185391381443198</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="D5">
-        <v>2.447492096405183</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="E5">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F5">
-        <v>2.462043841514472</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="G5">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H5">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I5">
-        <v>16.41460730124637</v>
+        <v>72.75663776768657</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>6.117301619870513</v>
+        <v>27.1145260988855</v>
       </c>
       <c r="C6">
-        <v>0.8504913149484395</v>
+        <v>3.76974528787957</v>
       </c>
       <c r="D6">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E6">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F6">
-        <v>2.438595804928619</v>
+        <v>10.80891113535928</v>
       </c>
       <c r="G6">
-        <v>3.668226668049683</v>
+        <v>16.25916685297697</v>
       </c>
       <c r="H6">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I6">
-        <v>16.60103717047482</v>
+        <v>73.58297556642889</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>5.996074606062101</v>
+        <v>26.57719555119419</v>
       </c>
       <c r="C7">
-        <v>0.4896768176975864</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="D7">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E7">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F7">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G7">
-        <v>3.386055385892015</v>
+        <v>15.00846171044029</v>
       </c>
       <c r="H7">
-        <v>0.4140781678249662</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I7">
-        <v>16.60123189600267</v>
+        <v>73.58383867417402</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>5.7815960431703</v>
+        <v>25.62653381297106</v>
       </c>
       <c r="C8">
-        <v>0.7474014585910528</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D8">
-        <v>1.687925583727713</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E8">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F8">
-        <v>2.602732061029585</v>
+        <v>11.53643400023923</v>
       </c>
       <c r="G8">
-        <v>2.821712821576679</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="H8">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I8">
-        <v>15.49104387920218</v>
+        <v>68.66300530240969</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>6.48098266129574</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="C9">
-        <v>0.4123594254295465</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D9">
-        <v>3.375851167455425</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="E9">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F9">
-        <v>2.55583598785788</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="G9">
-        <v>2.069256069156231</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="H9">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I9">
-        <v>17.08629119333472</v>
+        <v>75.73383123532147</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>7.889081052454955</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="C10">
-        <v>0.6185391381443198</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="D10">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E10">
-        <v>1.882814840681722</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F10">
-        <v>2.227563475655951</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="G10">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="H10">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I10">
-        <v>16.27882767675137</v>
+        <v>72.15480375641148</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>7.702577954288175</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="C11">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D11">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E11">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F11">
-        <v>1.172401829292606</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="G11">
-        <v>0.9405709405255599</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H11">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I11">
-        <v>14.59181969310671</v>
+        <v>64.67725485593245</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>6.788712773270935</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="C12">
-        <v>0.3092695690721599</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="D12">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E12">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F12">
-        <v>0.844129317090676</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="G12">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H12">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I12">
-        <v>14.23201618003542</v>
+        <v>63.08245009529214</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>5.333988607570021</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="C13">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D13">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E13">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F13">
-        <v>0.7503371707472674</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="G13">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H13">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I13">
-        <v>10.79373707966732</v>
+        <v>47.84251029906597</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>4.186994553844299</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="C14">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D14">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E14">
-        <v>2.738639768264322</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F14">
-        <v>0.4924087683028943</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G14">
-        <v>0.5643425643153358</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I14">
-        <v>9.39588574014037</v>
+        <v>41.64662868602759</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>2.750920697960063</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="C15">
-        <v>0.1030898563573866</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D15">
-        <v>0.5063776751183137</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E15">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F15">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G15">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="H15">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I15">
-        <v>5.957001991554003</v>
+        <v>26.40400882742856</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.426748700975897</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="C16">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D16">
-        <v>0.6751702334910848</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E16">
-        <v>0.6846599420660806</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F16">
-        <v>0.422064658545338</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="G16">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I16">
-        <v>3.962426110323994</v>
+        <v>17.56318600251716</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.9791412653756154</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="C17">
-        <v>0.1288623204467333</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D17">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F17">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G17">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I17">
-        <v>1.958113943730569</v>
+        <v>8.679207750589548</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.7926381672088315</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="C18">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D18">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E18">
-        <v>0.08558249275826008</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F18">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G18">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="H18">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I18">
-        <v>2.22315260347432</v>
+        <v>9.853973701886174</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.4382822806919422</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="C19">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D19">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="F19">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G19">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="I19">
-        <v>1.816408923689494</v>
+        <v>8.051109823920999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.4289571257836032</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="C20">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D20">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="E20">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F20">
-        <v>0.1875842926868168</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G20">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I20">
-        <v>1.477491807435769</v>
+        <v>6.548882605931515</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.119018589000703</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="C21">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D21">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E21">
-        <v>0.1711649855165202</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F21">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G21">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I21">
-        <v>2.146479819073301</v>
+        <v>9.514126765622205</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>3.22650359828536</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="C22">
-        <v>0.2061797127147733</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D22">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E22">
-        <v>0.7702424348243407</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="F22">
-        <v>0.9848175366057886</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G22">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="I22">
-        <v>7.958600975066942</v>
+        <v>35.2759610786751</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>5.110184889769878</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="C23">
-        <v>0.3608144972508532</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="D23">
-        <v>1.35034046698217</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="E23">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F23">
-        <v>1.758602743938908</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="G23">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H23">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I23">
-        <v>14.90925737478468</v>
+        <v>66.08427593147807</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>6.732761843820898</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="C24">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D24">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E24">
-        <v>3.252134724813883</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F24">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G24">
-        <v>1.88114188105112</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="H24">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I24">
-        <v>16.2226539768173</v>
+        <v>71.905817626974</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>6.807363083087615</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="C25">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D25">
-        <v>1.687925583727713</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E25">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F25">
-        <v>1.45377826832283</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="G25">
-        <v>2.821712821576679</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="H25">
-        <v>0.2760521118833107</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="I25">
-        <v>15.52970132120638</v>
+        <v>68.83435180210392</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>6.005399760970445</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="C26">
-        <v>0.5412217458762797</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="D26">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E26">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F26">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G26">
-        <v>3.76228376210224</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="H26">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I26">
-        <v>18.41478251196163</v>
+        <v>81.62227924220829</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>5.184786129036589</v>
+        <v>22.98121419356761</v>
       </c>
       <c r="C27">
-        <v>0.5412217458762797</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="D27">
-        <v>2.194303258846026</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E27">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F27">
-        <v>3.024796719574923</v>
+        <v>13.40720708135911</v>
       </c>
       <c r="G27">
-        <v>2.633598633471568</v>
+        <v>11.67324799700911</v>
       </c>
       <c r="H27">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I27">
-        <v>15.07961754900969</v>
+        <v>66.83938589290783</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>5.88417274716203</v>
+        <v>26.08119812255603</v>
       </c>
       <c r="C28">
-        <v>0.7474014585910528</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D28">
-        <v>2.194303258846026</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E28">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F28">
-        <v>2.344803658585211</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="G28">
-        <v>3.76228376210224</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="H28">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I28">
-        <v>16.99337958935431</v>
+        <v>75.32200682848939</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>5.361964072295039</v>
+        <v>23.766543455578</v>
       </c>
       <c r="C29">
-        <v>0.6443116022336666</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="D29">
-        <v>2.363095817218798</v>
+        <v>10.47426254118602</v>
       </c>
       <c r="E29">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F29">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G29">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H29">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I29">
-        <v>13.48400952351291</v>
+        <v>59.76696113124637</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>5.417915001745075</v>
+        <v>24.01454216989708</v>
       </c>
       <c r="C30">
-        <v>0.3865869613402</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="D30">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E30">
-        <v>1.283737391373901</v>
+        <v>5.690079248251886</v>
       </c>
       <c r="F30">
-        <v>2.344803658585211</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="G30">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H30">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I30">
-        <v>14.83086883769391</v>
+        <v>65.73682403734598</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>5.436565311561749</v>
+        <v>24.09720840800344</v>
       </c>
       <c r="C31">
-        <v>0.5154492817869332</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="D31">
-        <v>2.700680933964339</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="E31">
-        <v>1.369319884132161</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="F31">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G31">
-        <v>1.975198975103675</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="H31">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I31">
-        <v>14.83265203772132</v>
+        <v>65.74472795098103</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>5.68834449408691</v>
+        <v>25.21320262243926</v>
       </c>
       <c r="C32">
-        <v>0.5927666740549731</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="D32">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E32">
-        <v>1.797232347923462</v>
+        <v>7.96611094755264</v>
       </c>
       <c r="F32">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G32">
-        <v>2.163313163208787</v>
+        <v>9.588739426114625</v>
       </c>
       <c r="H32">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I32">
-        <v>15.23300999542013</v>
+        <v>67.51928754726757</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>6.48098266129574</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="C33">
-        <v>0.4123594254295465</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D33">
-        <v>3.375851167455425</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="E33">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F33">
-        <v>2.55583598785788</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="G33">
-        <v>2.069256069156231</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="H33">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I33">
-        <v>17.08629119333472</v>
+        <v>75.73383123532147</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>7.889081052454955</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="C34">
-        <v>0.6185391381443198</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="D34">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E34">
-        <v>1.882814840681722</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F34">
-        <v>2.227563475655951</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="G34">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="H34">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I34">
-        <v>16.27882767675137</v>
+        <v>72.15480375641148</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>7.702577954288175</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="C35">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D35">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E35">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F35">
-        <v>1.172401829292606</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="G35">
-        <v>0.9405709405255599</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H35">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I35">
-        <v>14.59181969310671</v>
+        <v>64.67725485593245</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>6.788712773270935</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="C36">
-        <v>0.3092695690721599</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="D36">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E36">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F36">
-        <v>0.844129317090676</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="G36">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H36">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I36">
-        <v>14.23201618003542</v>
+        <v>63.08245009529214</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>5.333988607570021</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="C37">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D37">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E37">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F37">
-        <v>0.7503371707472674</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="G37">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H37">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I37">
-        <v>10.79373707966732</v>
+        <v>47.84251029906597</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>4.186994553844299</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="C38">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D38">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E38">
-        <v>2.738639768264322</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F38">
-        <v>0.4924087683028943</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G38">
-        <v>0.5643425643153358</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I38">
-        <v>9.39588574014037</v>
+        <v>41.64662868602759</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>2.750920697960063</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="C39">
-        <v>0.1030898563573866</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D39">
-        <v>0.5063776751183137</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E39">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F39">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G39">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="H39">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I39">
-        <v>5.957001991554003</v>
+        <v>26.40400882742856</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.426748700975897</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="C40">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D40">
-        <v>0.6751702334910848</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E40">
-        <v>0.6846599420660806</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F40">
-        <v>0.422064658545338</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="G40">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I40">
-        <v>3.962426110323994</v>
+        <v>17.56318600251716</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.9791412653756154</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="C41">
-        <v>0.1288623204467333</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D41">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F41">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G41">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I41">
-        <v>1.958113943730569</v>
+        <v>8.679207750589548</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.7926381672088315</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="C42">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D42">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E42">
-        <v>0.08558249275826008</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F42">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G42">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="H42">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I42">
-        <v>2.22315260347432</v>
+        <v>9.853973701886174</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.4382822806919422</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="C43">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D43">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="F43">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G43">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="I43">
-        <v>1.816408923689494</v>
+        <v>8.051109823920999</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.4289571257836032</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="C44">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D44">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="E44">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F44">
-        <v>0.1875842926868168</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G44">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I44">
-        <v>1.477491807435769</v>
+        <v>6.548882605931515</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.119018589000703</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="C45">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D45">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E45">
-        <v>0.1711649855165202</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F45">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G45">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I45">
-        <v>2.146479819073301</v>
+        <v>9.514126765622205</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>3.22650359828536</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="C46">
-        <v>0.2061797127147733</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D46">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E46">
-        <v>0.7702424348243407</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="F46">
-        <v>0.9848175366057886</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G46">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="I46">
-        <v>7.958600975066942</v>
+        <v>35.2759610786751</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>5.110184889769878</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="C47">
-        <v>0.3608144972508532</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="D47">
-        <v>1.35034046698217</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="E47">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F47">
-        <v>1.758602743938908</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="G47">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H47">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I47">
-        <v>14.90925737478468</v>
+        <v>66.08427593147807</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>6.732761843820898</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="C48">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D48">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E48">
-        <v>3.252134724813883</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F48">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G48">
-        <v>1.88114188105112</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="H48">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I48">
-        <v>16.2226539768173</v>
+        <v>71.905817626974</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>6.807363083087615</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="C49">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D49">
-        <v>1.687925583727713</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E49">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F49">
-        <v>1.45377826832283</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="G49">
-        <v>2.821712821576679</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="H49">
-        <v>0.2760521118833107</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="I49">
-        <v>15.52970132120638</v>
+        <v>68.83435180210392</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>26.61852867024736</v>
+        <v>5.915228593388302</v>
       </c>
       <c r="C2">
-        <v>2.398928819559726</v>
+        <v>0.5330952932354946</v>
       </c>
       <c r="D2">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E2">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="F2">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="G2">
-        <v>16.67606856715587</v>
+        <v>3.705793014923528</v>
       </c>
       <c r="H2">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I2">
-        <v>81.62227924220829</v>
+        <v>18.13828427604629</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>30.58650809935257</v>
+        <v>6.797001799856124</v>
       </c>
       <c r="C3">
-        <v>2.855867642333008</v>
+        <v>0.6346372538517796</v>
       </c>
       <c r="D3">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="E3">
-        <v>6.069417864802011</v>
+        <v>1.348759525511558</v>
       </c>
       <c r="F3">
-        <v>14.34259362191905</v>
+        <v>3.187243027093122</v>
       </c>
       <c r="G3">
-        <v>25.8479062790916</v>
+        <v>5.743979173131467</v>
       </c>
       <c r="I3">
-        <v>88.68023282851482</v>
+        <v>19.70671840633663</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>24.923870789067</v>
+        <v>5.538637953126002</v>
       </c>
       <c r="C4">
-        <v>2.056224702479765</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D4">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E4">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F4">
-        <v>11.22463848671926</v>
+        <v>2.494364108159835</v>
       </c>
       <c r="G4">
-        <v>17.09297028133476</v>
+        <v>3.798437840296615</v>
       </c>
       <c r="H4">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I4">
-        <v>73.05524298017669</v>
+        <v>16.23449844003926</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>28.5198521466936</v>
+        <v>6.337744921487467</v>
       </c>
       <c r="C5">
-        <v>2.741632936639687</v>
+        <v>0.6092517636977082</v>
       </c>
       <c r="D5">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="E5">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F5">
-        <v>10.91284297319928</v>
+        <v>2.425076216266507</v>
       </c>
       <c r="G5">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="H5">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I5">
-        <v>72.75663776768657</v>
+        <v>16.16814172615258</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>27.1145260988855</v>
+        <v>6.02545024419678</v>
       </c>
       <c r="C6">
-        <v>3.76974528787957</v>
+        <v>0.837721175084349</v>
       </c>
       <c r="D6">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="E6">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="F6">
-        <v>10.80891113535928</v>
+        <v>2.401980252302063</v>
       </c>
       <c r="G6">
-        <v>16.25916685297697</v>
+        <v>3.613148189550438</v>
       </c>
       <c r="H6">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I6">
-        <v>73.58297556642889</v>
+        <v>16.35177234809531</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>26.57719555119419</v>
+        <v>5.90604345582093</v>
       </c>
       <c r="C7">
-        <v>2.170459408173086</v>
+        <v>0.4823243129273524</v>
       </c>
       <c r="D7">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E7">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F7">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="G7">
-        <v>15.00846171044029</v>
+        <v>3.335213713431174</v>
       </c>
       <c r="H7">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I7">
-        <v>73.58383867417402</v>
+        <v>16.35196414981645</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>25.62653381297106</v>
+        <v>5.694785291771346</v>
       </c>
       <c r="C8">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="D8">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="E8">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="F8">
-        <v>11.53643400023923</v>
+        <v>2.563652000053164</v>
       </c>
       <c r="G8">
-        <v>12.5070514253669</v>
+        <v>2.779344761192645</v>
       </c>
       <c r="H8">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I8">
-        <v>68.66300530240969</v>
+        <v>15.25844562275771</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>28.72651774195949</v>
+        <v>6.383670609324331</v>
       </c>
       <c r="C9">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="D9">
-        <v>14.96323220169431</v>
+        <v>3.325162711487626</v>
       </c>
       <c r="E9">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F9">
-        <v>11.32857032455925</v>
+        <v>2.517460072124278</v>
       </c>
       <c r="G9">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="H9">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I9">
-        <v>75.73383123532147</v>
+        <v>16.82974027451588</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>34.96781871898955</v>
+        <v>7.770626381997676</v>
       </c>
       <c r="C10">
-        <v>2.741632936639687</v>
+        <v>0.6092517636977082</v>
       </c>
       <c r="D10">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E10">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="F10">
-        <v>9.873524594799347</v>
+        <v>2.194116576622077</v>
       </c>
       <c r="G10">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="H10">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I10">
-        <v>72.15480375641148</v>
+        <v>16.03440083475811</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>34.14115633792596</v>
+        <v>7.586923630650213</v>
       </c>
       <c r="C11">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D11">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E11">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F11">
-        <v>5.196591891999656</v>
+        <v>1.154798198222146</v>
       </c>
       <c r="G11">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="H11">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I11">
-        <v>64.67725485593245</v>
+        <v>14.37272330131832</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>30.09051067071441</v>
+        <v>6.686780149047648</v>
       </c>
       <c r="C12">
-        <v>1.370816468319844</v>
+        <v>0.3046258818488541</v>
       </c>
       <c r="D12">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E12">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F12">
-        <v>3.741546162239753</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G12">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="H12">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I12">
-        <v>63.08245009529214</v>
+        <v>14.01832224339825</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>23.64254409841846</v>
+        <v>5.25389868853744</v>
       </c>
       <c r="C13">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D13">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="E13">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="F13">
-        <v>3.32581881087978</v>
+        <v>0.7390708468621734</v>
       </c>
       <c r="G13">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H13">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I13">
-        <v>47.84251029906597</v>
+        <v>10.63166895534799</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>18.55857045487744</v>
+        <v>4.124126767750541</v>
       </c>
       <c r="C14">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D14">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="E14">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="F14">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="G14">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="I14">
-        <v>41.64662868602759</v>
+        <v>9.254806374672796</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>12.19327012068785</v>
+        <v>2.709615582375077</v>
       </c>
       <c r="C15">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="D15">
-        <v>2.244484830254147</v>
+        <v>0.4987744067231438</v>
       </c>
       <c r="E15">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F15">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="G15">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="H15">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I15">
-        <v>26.40400882742856</v>
+        <v>5.867557517206345</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>6.32396721513641</v>
+        <v>1.405326047808091</v>
       </c>
       <c r="C16">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="D16">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="E16">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="F16">
-        <v>1.870773081119876</v>
+        <v>0.4157273513599725</v>
       </c>
       <c r="G16">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I16">
-        <v>17.56318600251716</v>
+        <v>3.902930222781592</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>4.339977500583809</v>
+        <v>0.96443944457418</v>
       </c>
       <c r="C17">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="D17">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="F17">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G17">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I17">
-        <v>8.679207750589548</v>
+        <v>1.928712833464345</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>3.513315119520227</v>
+        <v>0.7807366932267171</v>
       </c>
       <c r="C18">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="D18">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="E18">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="F18">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="G18">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="H18">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I18">
-        <v>9.853973701886174</v>
+        <v>2.189771933752484</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.942656595499419</v>
+        <v>0.4317014656665377</v>
       </c>
       <c r="C19">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D19">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="F19">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G19">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="I19">
-        <v>8.051109823920999</v>
+        <v>1.789135516426889</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>1.90132347644624</v>
+        <v>0.4225163280991644</v>
       </c>
       <c r="C20">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D20">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="E20">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="F20">
-        <v>0.8314547027199449</v>
+        <v>0.1847677117155433</v>
       </c>
       <c r="G20">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="I20">
-        <v>6.548882605931515</v>
+        <v>1.455307245762559</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>4.959974286381497</v>
+        <v>1.102216508084777</v>
       </c>
       <c r="C21">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D21">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="E21">
-        <v>0.7586772331002514</v>
+        <v>0.1685949406889448</v>
       </c>
       <c r="F21">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G21">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="I21">
-        <v>9.514126765622205</v>
+        <v>2.11425039236049</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>14.30125919239998</v>
+        <v>3.178057598311108</v>
       </c>
       <c r="C22">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="D22">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="E22">
-        <v>3.414047548951131</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F22">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="G22">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="I22">
-        <v>35.2759610786751</v>
+        <v>7.839102461927801</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>22.65054924114217</v>
+        <v>5.033455386920482</v>
       </c>
       <c r="C23">
-        <v>1.599285879706484</v>
+        <v>0.3553968621569965</v>
       </c>
       <c r="D23">
-        <v>5.985292880677726</v>
+        <v>1.33006508459505</v>
       </c>
       <c r="E23">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F23">
-        <v>7.794887837999485</v>
+        <v>1.732197297333219</v>
       </c>
       <c r="G23">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="H23">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I23">
-        <v>66.08427593147807</v>
+        <v>14.68539465143957</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>29.84251195639533</v>
+        <v>6.631669323643413</v>
       </c>
       <c r="C24">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D24">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E24">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="F24">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="G24">
-        <v>8.338034283577935</v>
+        <v>1.852896507461764</v>
       </c>
       <c r="H24">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I24">
-        <v>71.905817626974</v>
+        <v>15.97907058377201</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>30.17317690882076</v>
+        <v>6.705150424182393</v>
       </c>
       <c r="C25">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="D25">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="E25">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F25">
-        <v>6.443773946079574</v>
+        <v>1.431949765795461</v>
       </c>
       <c r="G25">
-        <v>12.5070514253669</v>
+        <v>2.779344761192645</v>
       </c>
       <c r="H25">
-        <v>1.223582333753053</v>
+        <v>0.2719071852784563</v>
       </c>
       <c r="I25">
-        <v>68.83435180210392</v>
+        <v>15.29652262268976</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>26.61852867024736</v>
+        <v>5.915228593388302</v>
       </c>
       <c r="C26">
-        <v>2.398928819559726</v>
+        <v>0.5330952932354946</v>
       </c>
       <c r="D26">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E26">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="F26">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="G26">
-        <v>16.67606856715587</v>
+        <v>3.705793014923528</v>
       </c>
       <c r="H26">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I26">
-        <v>81.62227924220829</v>
+        <v>18.13828427604629</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>22.98121419356761</v>
+        <v>5.106936487459468</v>
       </c>
       <c r="C27">
-        <v>2.398928819559726</v>
+        <v>0.5330952932354946</v>
       </c>
       <c r="D27">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="E27">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="F27">
-        <v>13.40720708135911</v>
+        <v>2.979379351413137</v>
       </c>
       <c r="G27">
-        <v>11.67324799700911</v>
+        <v>2.594055110446469</v>
       </c>
       <c r="H27">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I27">
-        <v>66.83938589290783</v>
+        <v>14.85319686509063</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>26.08119812255603</v>
+        <v>5.795821805012452</v>
       </c>
       <c r="C28">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="D28">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="E28">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F28">
-        <v>10.39318378399931</v>
+        <v>2.309596396444292</v>
       </c>
       <c r="G28">
-        <v>16.67606856715587</v>
+        <v>3.705793014923528</v>
       </c>
       <c r="H28">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I28">
-        <v>75.32200682848939</v>
+        <v>16.73822373966431</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>23.766543455578</v>
+        <v>5.281454101239555</v>
       </c>
       <c r="C29">
-        <v>2.855867642333008</v>
+        <v>0.6346372538517796</v>
       </c>
       <c r="D29">
-        <v>10.47426254118602</v>
+        <v>2.327613898041337</v>
       </c>
       <c r="E29">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="F29">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="G29">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="H29">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I29">
-        <v>59.76696113124637</v>
+        <v>13.28154691805475</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>24.01454216989708</v>
+        <v>5.336564926643793</v>
       </c>
       <c r="C30">
-        <v>1.713520585399804</v>
+        <v>0.3807823523110677</v>
       </c>
       <c r="D30">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E30">
-        <v>5.690079248251886</v>
+        <v>1.264462055167085</v>
       </c>
       <c r="F30">
-        <v>10.39318378399931</v>
+        <v>2.309596396444292</v>
       </c>
       <c r="G30">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="H30">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I30">
-        <v>65.73682403734598</v>
+        <v>14.60818311941022</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>24.09720840800344</v>
+        <v>5.354935201778544</v>
       </c>
       <c r="C31">
-        <v>2.284694113866406</v>
+        <v>0.5077098030814237</v>
       </c>
       <c r="D31">
-        <v>11.97058576135545</v>
+        <v>2.6601301691901</v>
       </c>
       <c r="E31">
-        <v>6.069417864802011</v>
+        <v>1.348759525511558</v>
       </c>
       <c r="F31">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="G31">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="H31">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I31">
-        <v>65.74472795098103</v>
+        <v>14.60993954466245</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>25.21320262243926</v>
+        <v>5.602933916097614</v>
       </c>
       <c r="C32">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="D32">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E32">
-        <v>7.96611094755264</v>
+        <v>1.77024687723392</v>
       </c>
       <c r="F32">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="G32">
-        <v>9.588739426114625</v>
+        <v>2.130830983581028</v>
       </c>
       <c r="H32">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I32">
-        <v>67.51928754726757</v>
+        <v>15.00428612161501</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>28.72651774195949</v>
+        <v>6.383670609324331</v>
       </c>
       <c r="C33">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="D33">
-        <v>14.96323220169431</v>
+        <v>3.325162711487626</v>
       </c>
       <c r="E33">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F33">
-        <v>11.32857032455925</v>
+        <v>2.517460072124278</v>
       </c>
       <c r="G33">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="H33">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I33">
-        <v>75.73383123532147</v>
+        <v>16.82974027451588</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>34.96781871898955</v>
+        <v>7.770626381997676</v>
       </c>
       <c r="C34">
-        <v>2.741632936639687</v>
+        <v>0.6092517636977082</v>
       </c>
       <c r="D34">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E34">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="F34">
-        <v>9.873524594799347</v>
+        <v>2.194116576622077</v>
       </c>
       <c r="G34">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="H34">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I34">
-        <v>72.15480375641148</v>
+        <v>16.03440083475811</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>34.14115633792596</v>
+        <v>7.586923630650213</v>
       </c>
       <c r="C35">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D35">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E35">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F35">
-        <v>5.196591891999656</v>
+        <v>1.154798198222146</v>
       </c>
       <c r="G35">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="H35">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I35">
-        <v>64.67725485593245</v>
+        <v>14.37272330131832</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>30.09051067071441</v>
+        <v>6.686780149047648</v>
       </c>
       <c r="C36">
-        <v>1.370816468319844</v>
+        <v>0.3046258818488541</v>
       </c>
       <c r="D36">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E36">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F36">
-        <v>3.741546162239753</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G36">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="H36">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I36">
-        <v>63.08245009529214</v>
+        <v>14.01832224339825</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>23.64254409841846</v>
+        <v>5.25389868853744</v>
       </c>
       <c r="C37">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D37">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="E37">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="F37">
-        <v>3.32581881087978</v>
+        <v>0.7390708468621734</v>
       </c>
       <c r="G37">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H37">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I37">
-        <v>47.84251029906597</v>
+        <v>10.63166895534799</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>18.55857045487744</v>
+        <v>4.124126767750541</v>
       </c>
       <c r="C38">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D38">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="E38">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="F38">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="G38">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="I38">
-        <v>41.64662868602759</v>
+        <v>9.254806374672796</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>12.19327012068785</v>
+        <v>2.709615582375077</v>
       </c>
       <c r="C39">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="D39">
-        <v>2.244484830254147</v>
+        <v>0.4987744067231438</v>
       </c>
       <c r="E39">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F39">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="G39">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="H39">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I39">
-        <v>26.40400882742856</v>
+        <v>5.867557517206345</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>6.32396721513641</v>
+        <v>1.405326047808091</v>
       </c>
       <c r="C40">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="D40">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="E40">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="F40">
-        <v>1.870773081119876</v>
+        <v>0.4157273513599725</v>
       </c>
       <c r="G40">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I40">
-        <v>17.56318600251716</v>
+        <v>3.902930222781592</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>4.339977500583809</v>
+        <v>0.96443944457418</v>
       </c>
       <c r="C41">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="D41">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="F41">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G41">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I41">
-        <v>8.679207750589548</v>
+        <v>1.928712833464345</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>3.513315119520227</v>
+        <v>0.7807366932267171</v>
       </c>
       <c r="C42">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="D42">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="E42">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="F42">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="G42">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="H42">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I42">
-        <v>9.853973701886174</v>
+        <v>2.189771933752484</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.942656595499419</v>
+        <v>0.4317014656665377</v>
       </c>
       <c r="C43">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D43">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="F43">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G43">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="I43">
-        <v>8.051109823920999</v>
+        <v>1.789135516426889</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>1.90132347644624</v>
+        <v>0.4225163280991644</v>
       </c>
       <c r="C44">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D44">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="E44">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="F44">
-        <v>0.8314547027199449</v>
+        <v>0.1847677117155433</v>
       </c>
       <c r="G44">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="I44">
-        <v>6.548882605931515</v>
+        <v>1.455307245762559</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>4.959974286381497</v>
+        <v>1.102216508084777</v>
       </c>
       <c r="C45">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D45">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="E45">
-        <v>0.7586772331002514</v>
+        <v>0.1685949406889448</v>
       </c>
       <c r="F45">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G45">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="I45">
-        <v>9.514126765622205</v>
+        <v>2.11425039236049</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>14.30125919239998</v>
+        <v>3.178057598311108</v>
       </c>
       <c r="C46">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="D46">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="E46">
-        <v>3.414047548951131</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F46">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="G46">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="I46">
-        <v>35.2759610786751</v>
+        <v>7.839102461927801</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>22.65054924114217</v>
+        <v>5.033455386920482</v>
       </c>
       <c r="C47">
-        <v>1.599285879706484</v>
+        <v>0.3553968621569965</v>
       </c>
       <c r="D47">
-        <v>5.985292880677726</v>
+        <v>1.33006508459505</v>
       </c>
       <c r="E47">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F47">
-        <v>7.794887837999485</v>
+        <v>1.732197297333219</v>
       </c>
       <c r="G47">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="H47">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I47">
-        <v>66.08427593147807</v>
+        <v>14.68539465143957</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>29.84251195639533</v>
+        <v>6.631669323643413</v>
       </c>
       <c r="C48">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D48">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E48">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="F48">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="G48">
-        <v>8.338034283577935</v>
+        <v>1.852896507461764</v>
       </c>
       <c r="H48">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I48">
-        <v>71.905817626974</v>
+        <v>15.97907058377201</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>30.17317690882076</v>
+        <v>6.705150424182393</v>
       </c>
       <c r="C49">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="D49">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="E49">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F49">
-        <v>6.443773946079574</v>
+        <v>1.431949765795461</v>
       </c>
       <c r="G49">
-        <v>12.5070514253669</v>
+        <v>2.779344761192645</v>
       </c>
       <c r="H49">
-        <v>1.223582333753053</v>
+        <v>0.2719071852784563</v>
       </c>
       <c r="I49">
-        <v>68.83435180210392</v>
+        <v>15.29652262268976</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>5.915228593388302</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="C2">
-        <v>0.5330952932354946</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="D2">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E2">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F2">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G2">
-        <v>3.705793014923528</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="H2">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I2">
-        <v>18.13828427604629</v>
+        <v>81.62227924220829</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>6.797001799856124</v>
+        <v>30.58650809935257</v>
       </c>
       <c r="C3">
-        <v>0.6346372538517796</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="D3">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E3">
-        <v>1.348759525511558</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="F3">
-        <v>3.187243027093122</v>
+        <v>14.34259362191905</v>
       </c>
       <c r="G3">
-        <v>5.743979173131467</v>
+        <v>25.8479062790916</v>
       </c>
       <c r="I3">
-        <v>19.70671840633663</v>
+        <v>88.68023282851482</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>5.538637953126002</v>
+        <v>24.923870789067</v>
       </c>
       <c r="C4">
-        <v>0.4569388227732812</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="D4">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E4">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F4">
-        <v>2.494364108159835</v>
+        <v>11.22463848671926</v>
       </c>
       <c r="G4">
-        <v>3.798437840296615</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="H4">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I4">
-        <v>16.23449844003926</v>
+        <v>73.05524298017669</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>6.337744921487467</v>
+        <v>28.5198521466936</v>
       </c>
       <c r="C5">
-        <v>0.6092517636977082</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="D5">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="E5">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F5">
-        <v>2.425076216266507</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="G5">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H5">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I5">
-        <v>16.16814172615258</v>
+        <v>72.75663776768657</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>6.02545024419678</v>
+        <v>27.1145260988855</v>
       </c>
       <c r="C6">
-        <v>0.837721175084349</v>
+        <v>3.76974528787957</v>
       </c>
       <c r="D6">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E6">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F6">
-        <v>2.401980252302063</v>
+        <v>10.80891113535928</v>
       </c>
       <c r="G6">
-        <v>3.613148189550438</v>
+        <v>16.25916685297697</v>
       </c>
       <c r="H6">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I6">
-        <v>16.35177234809531</v>
+        <v>73.58297556642889</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>5.90604345582093</v>
+        <v>26.57719555119419</v>
       </c>
       <c r="C7">
-        <v>0.4823243129273524</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="D7">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E7">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F7">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G7">
-        <v>3.335213713431174</v>
+        <v>15.00846171044029</v>
       </c>
       <c r="H7">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I7">
-        <v>16.35196414981645</v>
+        <v>73.58383867417402</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>5.694785291771346</v>
+        <v>25.62653381297106</v>
       </c>
       <c r="C8">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D8">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E8">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F8">
-        <v>2.563652000053164</v>
+        <v>11.53643400023923</v>
       </c>
       <c r="G8">
-        <v>2.779344761192645</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="H8">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I8">
-        <v>15.25844562275771</v>
+        <v>68.66300530240969</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>6.383670609324331</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="C9">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D9">
-        <v>3.325162711487626</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="E9">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F9">
-        <v>2.517460072124278</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="G9">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="H9">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I9">
-        <v>16.82974027451588</v>
+        <v>75.73383123532147</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>7.770626381997676</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="C10">
-        <v>0.6092517636977082</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="D10">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E10">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F10">
-        <v>2.194116576622077</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="G10">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="H10">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I10">
-        <v>16.03440083475811</v>
+        <v>72.15480375641148</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>7.586923630650213</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="C11">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D11">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E11">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F11">
-        <v>1.154798198222146</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="G11">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H11">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I11">
-        <v>14.37272330131832</v>
+        <v>64.67725485593245</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>6.686780149047648</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="C12">
-        <v>0.3046258818488541</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="D12">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E12">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F12">
-        <v>0.8314547027199449</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="G12">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H12">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I12">
-        <v>14.01832224339825</v>
+        <v>63.08245009529214</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>5.25389868853744</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="C13">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D13">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E13">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F13">
-        <v>0.7390708468621734</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="G13">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H13">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I13">
-        <v>10.63166895534799</v>
+        <v>47.84251029906597</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>4.124126767750541</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="C14">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D14">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E14">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F14">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G14">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I14">
-        <v>9.254806374672796</v>
+        <v>41.64662868602759</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>2.709615582375077</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="C15">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D15">
-        <v>0.4987744067231438</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E15">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F15">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G15">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="H15">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I15">
-        <v>5.867557517206345</v>
+        <v>26.40400882742856</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.405326047808091</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="C16">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D16">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E16">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F16">
-        <v>0.4157273513599725</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="G16">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I16">
-        <v>3.902930222781592</v>
+        <v>17.56318600251716</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.96443944457418</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="C17">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D17">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F17">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G17">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I17">
-        <v>1.928712833464345</v>
+        <v>8.679207750589548</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.7807366932267171</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="C18">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D18">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E18">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F18">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G18">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="H18">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I18">
-        <v>2.189771933752484</v>
+        <v>9.853973701886174</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.4317014656665377</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="C19">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D19">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="F19">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G19">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="I19">
-        <v>1.789135516426889</v>
+        <v>8.051109823920999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.4225163280991644</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="C20">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D20">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="E20">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F20">
-        <v>0.1847677117155433</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G20">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I20">
-        <v>1.455307245762559</v>
+        <v>6.548882605931515</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.102216508084777</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="C21">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D21">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E21">
-        <v>0.1685949406889448</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F21">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G21">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I21">
-        <v>2.11425039236049</v>
+        <v>9.514126765622205</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>3.178057598311108</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="C22">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D22">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E22">
-        <v>0.7586772331002514</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="F22">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G22">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="I22">
-        <v>7.839102461927801</v>
+        <v>35.2759610786751</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>5.033455386920482</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="C23">
-        <v>0.3553968621569965</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="D23">
-        <v>1.33006508459505</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="E23">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F23">
-        <v>1.732197297333219</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="G23">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H23">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I23">
-        <v>14.68539465143957</v>
+        <v>66.08427593147807</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>6.631669323643413</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="C24">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D24">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E24">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F24">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G24">
-        <v>1.852896507461764</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="H24">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I24">
-        <v>15.97907058377201</v>
+        <v>71.905817626974</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>6.705150424182393</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="C25">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D25">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E25">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F25">
-        <v>1.431949765795461</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="G25">
-        <v>2.779344761192645</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="H25">
-        <v>0.2719071852784563</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="I25">
-        <v>15.29652262268976</v>
+        <v>68.83435180210392</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>5.915228593388302</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="C26">
-        <v>0.5330952932354946</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="D26">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E26">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F26">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G26">
-        <v>3.705793014923528</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="H26">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I26">
-        <v>18.13828427604629</v>
+        <v>81.62227924220829</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>5.106936487459468</v>
+        <v>22.98121419356761</v>
       </c>
       <c r="C27">
-        <v>0.5330952932354946</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="D27">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E27">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F27">
-        <v>2.979379351413137</v>
+        <v>13.40720708135911</v>
       </c>
       <c r="G27">
-        <v>2.594055110446469</v>
+        <v>11.67324799700911</v>
       </c>
       <c r="H27">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I27">
-        <v>14.85319686509063</v>
+        <v>66.83938589290783</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>5.795821805012452</v>
+        <v>26.08119812255603</v>
       </c>
       <c r="C28">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D28">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E28">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F28">
-        <v>2.309596396444292</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="G28">
-        <v>3.705793014923528</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="H28">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I28">
-        <v>16.73822373966431</v>
+        <v>75.32200682848939</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>5.281454101239555</v>
+        <v>23.766543455578</v>
       </c>
       <c r="C29">
-        <v>0.6346372538517796</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="D29">
-        <v>2.327613898041337</v>
+        <v>10.47426254118602</v>
       </c>
       <c r="E29">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F29">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G29">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H29">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I29">
-        <v>13.28154691805475</v>
+        <v>59.76696113124637</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>5.336564926643793</v>
+        <v>24.01454216989708</v>
       </c>
       <c r="C30">
-        <v>0.3807823523110677</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="D30">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E30">
-        <v>1.264462055167085</v>
+        <v>5.690079248251886</v>
       </c>
       <c r="F30">
-        <v>2.309596396444292</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="G30">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H30">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I30">
-        <v>14.60818311941022</v>
+        <v>65.73682403734598</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>5.354935201778544</v>
+        <v>24.09720840800344</v>
       </c>
       <c r="C31">
-        <v>0.5077098030814237</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="D31">
-        <v>2.6601301691901</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="E31">
-        <v>1.348759525511558</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="F31">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G31">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="H31">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I31">
-        <v>14.60993954466245</v>
+        <v>65.74472795098103</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>5.602933916097614</v>
+        <v>25.21320262243926</v>
       </c>
       <c r="C32">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="D32">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E32">
-        <v>1.77024687723392</v>
+        <v>7.96611094755264</v>
       </c>
       <c r="F32">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G32">
-        <v>2.130830983581028</v>
+        <v>9.588739426114625</v>
       </c>
       <c r="H32">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I32">
-        <v>15.00428612161501</v>
+        <v>67.51928754726757</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>6.383670609324331</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="C33">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D33">
-        <v>3.325162711487626</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="E33">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F33">
-        <v>2.517460072124278</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="G33">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="H33">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I33">
-        <v>16.82974027451588</v>
+        <v>75.73383123532147</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>7.770626381997676</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="C34">
-        <v>0.6092517636977082</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="D34">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E34">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F34">
-        <v>2.194116576622077</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="G34">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="H34">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I34">
-        <v>16.03440083475811</v>
+        <v>72.15480375641148</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>7.586923630650213</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="C35">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D35">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E35">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F35">
-        <v>1.154798198222146</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="G35">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H35">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I35">
-        <v>14.37272330131832</v>
+        <v>64.67725485593245</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>6.686780149047648</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="C36">
-        <v>0.3046258818488541</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="D36">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E36">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F36">
-        <v>0.8314547027199449</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="G36">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H36">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I36">
-        <v>14.01832224339825</v>
+        <v>63.08245009529214</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>5.25389868853744</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="C37">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D37">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E37">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F37">
-        <v>0.7390708468621734</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="G37">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H37">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I37">
-        <v>10.63166895534799</v>
+        <v>47.84251029906597</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>4.124126767750541</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="C38">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D38">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E38">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F38">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G38">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I38">
-        <v>9.254806374672796</v>
+        <v>41.64662868602759</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>2.709615582375077</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="C39">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D39">
-        <v>0.4987744067231438</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E39">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F39">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G39">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="H39">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I39">
-        <v>5.867557517206345</v>
+        <v>26.40400882742856</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.405326047808091</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="C40">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D40">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E40">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F40">
-        <v>0.4157273513599725</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="G40">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I40">
-        <v>3.902930222781592</v>
+        <v>17.56318600251716</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.96443944457418</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="C41">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D41">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F41">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G41">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I41">
-        <v>1.928712833464345</v>
+        <v>8.679207750589548</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.7807366932267171</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="C42">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D42">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E42">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F42">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G42">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="H42">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I42">
-        <v>2.189771933752484</v>
+        <v>9.853973701886174</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.4317014656665377</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="C43">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D43">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="F43">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G43">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="I43">
-        <v>1.789135516426889</v>
+        <v>8.051109823920999</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.4225163280991644</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="C44">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D44">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="E44">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F44">
-        <v>0.1847677117155433</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G44">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I44">
-        <v>1.455307245762559</v>
+        <v>6.548882605931515</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.102216508084777</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="C45">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D45">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E45">
-        <v>0.1685949406889448</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F45">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G45">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I45">
-        <v>2.11425039236049</v>
+        <v>9.514126765622205</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>3.178057598311108</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="C46">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D46">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E46">
-        <v>0.7586772331002514</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="F46">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G46">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="I46">
-        <v>7.839102461927801</v>
+        <v>35.2759610786751</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>5.033455386920482</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="C47">
-        <v>0.3553968621569965</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="D47">
-        <v>1.33006508459505</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="E47">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F47">
-        <v>1.732197297333219</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="G47">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H47">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I47">
-        <v>14.68539465143957</v>
+        <v>66.08427593147807</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>6.631669323643413</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="C48">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D48">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E48">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F48">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G48">
-        <v>1.852896507461764</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="H48">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I48">
-        <v>15.97907058377201</v>
+        <v>71.905817626974</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>6.705150424182393</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="C49">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D49">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E49">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F49">
-        <v>1.431949765795461</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="G49">
-        <v>2.779344761192645</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="H49">
-        <v>0.2719071852784563</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="I49">
-        <v>15.29652262268976</v>
+        <v>68.83435180210392</v>
       </c>
     </row>
   </sheetData>
